--- a/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1420_male_without_photo_80_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1420_male_without_photo_80_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35.5" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="47.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০২/০৯/১৯৯৪</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ১৫/০৩/১৯৯৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G167" s="3" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৯/০১/২০০২</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G182" s="3" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্ম তারিখ:১১/০২/১৯৮৩</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>রিক্সা/ভান চালক/জন্ম তারিখ:০১/০১/১৯৯২</t>
+          <t>রিক্সা/ভান চালক</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="F555" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০১/২০০০</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G555" s="3" t="inlineStr">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/১২/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="F611" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:০২/০৩/১৯৯৩</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G611" s="3" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="F618" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২৭/১২/১৯৯৯</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G618" s="3" t="inlineStr">
@@ -26481,7 +26481,7 @@
       </c>
       <c r="F620" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/১০/২০০০</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G620" s="3" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="F626" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৫/১৯৯৫</t>
+          <t>ছাত্র/ছাত্র</t>
         </is>
       </c>
       <c r="G626" s="3" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="F627" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:০১/০২/১৯৯৮</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G627" s="3" t="inlineStr">
@@ -30051,7 +30051,7 @@
       </c>
       <c r="F705" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/১১/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G705" s="3" t="inlineStr">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="F706" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১২/১০/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G706" s="3" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="F709" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১০/০৬/১৯৯৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G709" s="3" t="inlineStr">
@@ -30261,7 +30261,7 @@
       </c>
       <c r="F710" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৯/১২/১৯৯৯</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G710" s="3" t="inlineStr">
@@ -30471,7 +30471,7 @@
       </c>
       <c r="F715" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১৭/০৯/১৯৯৫</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G715" s="3" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="F723" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৫/১৯৯৯</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G723" s="3" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="F802" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/১২/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G802" s="3" t="inlineStr">
@@ -37233,7 +37233,7 @@
       </c>
       <c r="F876" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২২/০৩/১৯৯৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G876" s="3" t="inlineStr">
@@ -46935,7 +46935,7 @@
       </c>
       <c r="F1107" s="3" t="inlineStr">
         <is>
-          <t>আইনজীবি জন্ম তারিখ: ১০/০৩/২০০২</t>
+          <t>আইনজীবি</t>
         </is>
       </c>
       <c r="G1107" s="3" t="inlineStr">
@@ -52521,7 +52521,7 @@
       </c>
       <c r="F1240" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী জন্ম তারিখ:১৯/০৭/১৯৮৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1240" s="3" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="F1267" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৯৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1267" s="3" t="inlineStr">
@@ -54747,7 +54747,7 @@
       </c>
       <c r="F1293" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/১২/২০০০</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1293" s="3" t="inlineStr">
@@ -55293,7 +55293,7 @@
       </c>
       <c r="F1306" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১৩/১০/২০০২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G1306" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1420_male_without_photo_80_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1420_male_without_photo_80_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35.5" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="47.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০২/০৯/১৯৯৪</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ১৫/০৩/১৯৯৯</t>
         </is>
       </c>
       <c r="G167" s="3" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৯/০১/২০০২</t>
         </is>
       </c>
       <c r="G182" s="3" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:১১/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>রিক্সা/ভান চালক</t>
+          <t>রিক্সা/ভান চালক/জন্ম তারিখ:০১/০১/১৯৯২</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="F555" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০১/২০০০</t>
         </is>
       </c>
       <c r="G555" s="3" t="inlineStr">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/১২/২০০২</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="F611" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:০২/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="G611" s="3" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="F618" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২৭/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G618" s="3" t="inlineStr">
@@ -26481,7 +26481,7 @@
       </c>
       <c r="F620" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/১০/২০০০</t>
         </is>
       </c>
       <c r="G620" s="3" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="F626" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্র</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৫/১৯৯৫</t>
         </is>
       </c>
       <c r="G626" s="3" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="F627" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:০১/০২/১৯৯৮</t>
         </is>
       </c>
       <c r="G627" s="3" t="inlineStr">
@@ -30051,7 +30051,7 @@
       </c>
       <c r="F705" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/১১/২০০১</t>
         </is>
       </c>
       <c r="G705" s="3" t="inlineStr">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="F706" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১২/১০/২০০১</t>
         </is>
       </c>
       <c r="G706" s="3" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="F709" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১০/০৬/১৯৯৭</t>
         </is>
       </c>
       <c r="G709" s="3" t="inlineStr">
@@ -30261,7 +30261,7 @@
       </c>
       <c r="F710" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৯/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G710" s="3" t="inlineStr">
@@ -30471,7 +30471,7 @@
       </c>
       <c r="F715" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১৭/০৯/১৯৯৫</t>
         </is>
       </c>
       <c r="G715" s="3" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="F723" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="G723" s="3" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="F802" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/১২/২০০২</t>
         </is>
       </c>
       <c r="G802" s="3" t="inlineStr">
@@ -37233,7 +37233,7 @@
       </c>
       <c r="F876" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২২/০৩/১৯৯৯</t>
         </is>
       </c>
       <c r="G876" s="3" t="inlineStr">
@@ -46935,7 +46935,7 @@
       </c>
       <c r="F1107" s="3" t="inlineStr">
         <is>
-          <t>আইনজীবি</t>
+          <t>আইনজীবি জন্ম তারিখ: ১০/০৩/২০০২</t>
         </is>
       </c>
       <c r="G1107" s="3" t="inlineStr">
@@ -52521,7 +52521,7 @@
       </c>
       <c r="F1240" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ:১৯/০৭/১৯৮৩</t>
         </is>
       </c>
       <c r="G1240" s="3" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="F1267" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G1267" s="3" t="inlineStr">
@@ -54747,7 +54747,7 @@
       </c>
       <c r="F1293" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/১২/২০০০</t>
         </is>
       </c>
       <c r="G1293" s="3" t="inlineStr">
@@ -55293,7 +55293,7 @@
       </c>
       <c r="F1306" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১৩/১০/২০০২</t>
         </is>
       </c>
       <c r="G1306" s="3" t="inlineStr">
